--- a/html/PPR-systemer_excel.XLSX
+++ b/html/PPR-systemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3289100-69BD-4DF0-9F3C-4A2AA7479784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FF5B7C-DE08-4878-8F18-EF5B654A5BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/PPR-systemer_excel.XLSX
+++ b/html/PPR-systemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1CC040-5746-418A-9B4A-35AB6803BD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0419D957-8E52-4994-9CEB-FA1DF23810F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PPR_systemer">'Opdateret d. 05-12-2025'!$A$1:$J$67</definedName>
+    <definedName name="PPR_systemer">'Opdateret d. 19-12-2025'!$A$1:$J$67</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -686,9 +686,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -791,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -805,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -819,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -836,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -853,7 +853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -870,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -884,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -898,7 +898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -915,7 +915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -932,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -969,7 +969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -986,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
